--- a/students.xlsx
+++ b/students.xlsx
@@ -19,9 +19,6 @@
     <t>Vladimir Galkin</t>
   </si>
   <si>
-    <t>vladimir.galkin92.@gmail.com</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t>26, DNGU</t>
+  </si>
+  <si>
+    <t>vladimir.galkin92@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -660,13 +660,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -674,98 +674,98 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/students.xlsx
+++ b/students.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Vladimir Galkin</t>
   </si>
@@ -49,9 +49,6 @@
     <t>41, DNU</t>
   </si>
   <si>
-    <t>Valeriy Verbitskiy</t>
-  </si>
-  <si>
     <t>werw.77@mail.ru</t>
   </si>
   <si>
@@ -104,6 +101,15 @@
   </si>
   <si>
     <t>vladimir.galkin92@gmail.com</t>
+  </si>
+  <si>
+    <t>Valeriy Verzhbitskiy</t>
+  </si>
+  <si>
+    <t>assembla</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -328,20 +334,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -647,126 +667,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="D1" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="D10" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/students.xlsx
+++ b/students.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Vladimir Galkin</t>
   </si>
@@ -669,7 +669,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -755,7 +757,9 @@
       <c r="C6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">

--- a/students.xlsx
+++ b/students.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Vladimir Galkin</t>
   </si>
@@ -669,9 +669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -731,7 +729,9 @@
       <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -811,7 +811,9 @@
       <c r="C10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="15" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/students.xlsx
+++ b/students.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>Vladimir Galkin</t>
   </si>
@@ -110,6 +110,24 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>23-Jan</t>
+  </si>
+  <si>
+    <t>25-Jan</t>
+  </si>
+  <si>
+    <t>30-Jan</t>
+  </si>
+  <si>
+    <t>Konstantin Pavlyuchik</t>
+  </si>
+  <si>
+    <t>my_kostik@mail.ru</t>
+  </si>
+  <si>
+    <t>29, DGU (FT)</t>
   </si>
 </sst>
 </file>
@@ -141,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -321,6 +339,58 @@
       <right style="medium">
         <color theme="0" tint="-0.24994659260841701"/>
       </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
       <top style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
       </top>
@@ -334,7 +404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -360,6 +430,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -667,19 +761,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="9.28515625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -689,11 +789,25 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="17" t="s">
         <v>30</v>
       </c>
+      <c r="E1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="17"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="12"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -703,11 +817,23 @@
       <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>31</v>
-      </c>
+      <c r="D2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="13"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -717,9 +843,21 @@
       <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="14"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -729,11 +867,23 @@
       <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="D4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="14"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
@@ -743,11 +893,23 @@
       <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="D5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="14"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -757,11 +919,23 @@
       <c r="C6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="D6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="14"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -771,11 +945,21 @@
       <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="D7" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="14"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -785,11 +969,21 @@
       <c r="C8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="D8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="14"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
@@ -799,21 +993,69 @@
       <c r="C9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="14"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="D10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -826,8 +1068,9 @@
     <hyperlink ref="B8" r:id="rId7"/>
     <hyperlink ref="B9" r:id="rId8"/>
     <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/students.xlsx
+++ b/students.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>Vladimir Galkin</t>
   </si>
@@ -62,24 +62,6 @@
   </si>
   <si>
     <t>24, DNU (MechMath)</t>
-  </si>
-  <si>
-    <t>Alyona Khurtak</t>
-  </si>
-  <si>
-    <t>alenakhurtak@gmail.com</t>
-  </si>
-  <si>
-    <t>23, DGFA</t>
-  </si>
-  <si>
-    <t>Bogdan Larionov</t>
-  </si>
-  <si>
-    <t>odrik2@rambler.ru</t>
-  </si>
-  <si>
-    <t>22, PGASA</t>
   </si>
   <si>
     <t>Kirill Golovkov</t>
@@ -761,7 +743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -790,16 +772,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H1" s="17"/>
       <c r="I1" s="21"/>
@@ -812,21 +794,23 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="18"/>
+        <v>25</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="H2" s="18"/>
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
@@ -845,12 +829,14 @@
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="19"/>
+        <v>25</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="H3" s="19"/>
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
@@ -868,15 +854,17 @@
         <v>10</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="19"/>
+        <v>25</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="H4" s="19"/>
       <c r="I4" s="23"/>
       <c r="J4" s="23"/>
@@ -885,7 +873,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>11</v>
@@ -894,15 +882,17 @@
         <v>12</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="19"/>
+        <v>25</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="H5" s="19"/>
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
@@ -920,15 +910,17 @@
         <v>15</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="19"/>
+        <v>25</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="H6" s="19"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
@@ -945,14 +937,16 @@
       <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>31</v>
-      </c>
+      <c r="D7" s="19"/>
       <c r="E7" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+        <v>25</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="H7" s="19"/>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
@@ -970,92 +964,48 @@
         <v>21</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
+        <v>25</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="H8" s="19"/>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
       <c r="L8" s="14"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19" t="s">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="15"/>
+      <c r="D9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1067,10 +1017,8 @@
     <hyperlink ref="B7" r:id="rId6"/>
     <hyperlink ref="B8" r:id="rId7"/>
     <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/students.xlsx
+++ b/students.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
   <si>
     <t>Vladimir Galkin</t>
   </si>
@@ -110,6 +110,15 @@
   </si>
   <si>
     <t>29, DGU (FT)</t>
+  </si>
+  <si>
+    <t>TestThisApp</t>
+  </si>
+  <si>
+    <t>01-Feb</t>
+  </si>
+  <si>
+    <t>06-Feb</t>
   </si>
 </sst>
 </file>
@@ -386,7 +395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -436,6 +445,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -743,11 +761,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,11 +775,13 @@
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="6.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="9.28515625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="9.28515625" style="16" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -783,13 +803,22 @@
       <c r="G1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="H1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="K1" s="21"/>
-      <c r="L1" s="12"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="12"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -811,13 +840,21 @@
       <c r="G2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="22"/>
+      <c r="H2" s="25">
+        <f>13/39</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="13"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="13"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -837,13 +874,21 @@
       <c r="G3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="23"/>
+      <c r="H3" s="26">
+        <f>9/39</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>25</v>
+      </c>
       <c r="J3" s="23"/>
       <c r="K3" s="23"/>
-      <c r="L3" s="14"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="14"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -865,13 +910,21 @@
       <c r="G4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="23"/>
+      <c r="H4" s="26">
+        <f>9/39</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>25</v>
+      </c>
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
-      <c r="L4" s="14"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="14"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -893,13 +946,21 @@
       <c r="G5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="23"/>
+      <c r="H5" s="26">
+        <f>10/39</f>
+        <v>0.25641025641025639</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>25</v>
+      </c>
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
-      <c r="L5" s="14"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="14"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -921,13 +982,21 @@
       <c r="G6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="23"/>
+      <c r="H6" s="26">
+        <f>16/39</f>
+        <v>0.41025641025641024</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>25</v>
+      </c>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
-      <c r="L6" s="14"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="14"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -947,13 +1016,21 @@
       <c r="G7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="23"/>
+      <c r="H7" s="26">
+        <f>16/39</f>
+        <v>0.41025641025641024</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>25</v>
+      </c>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
-      <c r="L7" s="14"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="14"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -975,13 +1052,21 @@
       <c r="G8" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="23"/>
+      <c r="H8" s="26">
+        <f>13/39</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>25</v>
+      </c>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
-      <c r="L8" s="14"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="14"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>29</v>
       </c>
@@ -1001,11 +1086,19 @@
       <c r="G9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="24"/>
+      <c r="H9" s="27">
+        <f>12/39</f>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
-      <c r="L9" s="15"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/students.xlsx
+++ b/students.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
   <si>
     <t>Vladimir Galkin</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Kirill Golovkov</t>
   </si>
   <si>
-    <t>filko@bk.ru</t>
-  </si>
-  <si>
     <t>29, DNGU</t>
   </si>
   <si>
@@ -94,15 +91,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>23-Jan</t>
-  </si>
-  <si>
-    <t>25-Jan</t>
-  </si>
-  <si>
-    <t>30-Jan</t>
-  </si>
-  <si>
     <t>Konstantin Pavlyuchik</t>
   </si>
   <si>
@@ -115,17 +103,138 @@
     <t>TestThisApp</t>
   </si>
   <si>
-    <t>01-Feb</t>
-  </si>
-  <si>
-    <t>06-Feb</t>
+    <t>filho@bk.ru</t>
+  </si>
+  <si>
+    <t>Defect</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>#8</t>
+  </si>
+  <si>
+    <t>#35</t>
+  </si>
+  <si>
+    <t>#31</t>
+  </si>
+  <si>
+    <t>23-Jan
+Intro, part 1</t>
+  </si>
+  <si>
+    <t>25-Jan
+Intro, part 2</t>
+  </si>
+  <si>
+    <t>30-Jan
+Testing types</t>
+  </si>
+  <si>
+    <t>01-Feb
+Defects</t>
+  </si>
+  <si>
+    <t>06-Feb
+Requirements</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF009999"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">#2, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#26</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF009999"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">#7, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF009999"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">#34, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#6, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#1</t>
+    </r>
+  </si>
+  <si>
+    <t>Task</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,9 +243,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF009999"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF009999"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF009999"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -393,18 +541,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -454,6 +602,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -463,6 +629,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF009999"/>
+      <color rgb="FF99FF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -761,11 +933,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,14 +946,17 @@
     <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="6.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="9.28515625" style="16" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="9.28515625" style="16" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -792,69 +967,77 @@
         <v>3</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>33</v>
+      <c r="I1" s="29" t="s">
+        <v>38</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+        <v>30</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="M1" s="21"/>
       <c r="N1" s="21"/>
-      <c r="O1" s="12"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="12"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="25">
         <f>13/39</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="22"/>
+        <v>24</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>41</v>
+      </c>
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
       <c r="N2" s="22"/>
-      <c r="O2" s="13"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="13"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -864,31 +1047,36 @@
       <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="19"/>
+      <c r="D3" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E3" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="26">
         <f>9/39</f>
         <v>0.23076923076923078</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="23"/>
+        <v>24</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
       <c r="M3" s="23"/>
       <c r="N3" s="23"/>
-      <c r="O3" s="14"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="14"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -899,34 +1087,37 @@
         <v>10</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="26">
         <f>9/39</f>
         <v>0.23076923076923078</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="23"/>
+        <v>24</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>43</v>
+      </c>
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
       <c r="M4" s="23"/>
       <c r="N4" s="23"/>
-      <c r="O4" s="14"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="14"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>11</v>
@@ -935,32 +1126,35 @@
         <v>12</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="26">
         <f>10/39</f>
         <v>0.25641025641025639</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="23"/>
+        <v>24</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>40</v>
+      </c>
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
       <c r="M5" s="23"/>
       <c r="N5" s="23"/>
-      <c r="O5" s="14"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="14"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -971,134 +1165,148 @@
         <v>15</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="26">
         <f>16/39</f>
         <v>0.41025641025641024</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="23"/>
+        <v>24</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="K6" s="23"/>
       <c r="L6" s="23"/>
       <c r="M6" s="23"/>
       <c r="N6" s="23"/>
-      <c r="O6" s="14"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="14"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E7" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="26">
         <f>16/39</f>
         <v>0.41025641025641024</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="23"/>
+        <v>24</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>42</v>
+      </c>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
       <c r="M7" s="23"/>
       <c r="N7" s="23"/>
-      <c r="O7" s="14"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="14"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="D8" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="26">
         <f>13/39</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="23"/>
+        <v>24</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>33</v>
+      </c>
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
-      <c r="O8" s="14"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="14"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="27">
         <f>12/39</f>
         <v>0.30769230769230771</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="24"/>
+        <v>24</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>34</v>
+      </c>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
       <c r="N9" s="24"/>
-      <c r="O9" s="15"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/students.xlsx
+++ b/students.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="49">
   <si>
     <t>Vladimir Galkin</t>
   </si>
@@ -228,6 +228,18 @@
   </si>
   <si>
     <t>Task</t>
+  </si>
+  <si>
+    <t>task2(auto)</t>
+  </si>
+  <si>
+    <t>task4(travel)</t>
+  </si>
+  <si>
+    <t>task1(zoo)</t>
+  </si>
+  <si>
+    <t>task3(store)</t>
   </si>
 </sst>
 </file>
@@ -613,19 +625,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -647,9 +659,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -687,9 +699,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -724,7 +736,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -759,7 +771,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -952,7 +964,8 @@
     <col min="9" max="9" width="7.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="9.28515625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.28515625" style="16" customWidth="1"/>
     <col min="16" max="16" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1000,13 +1013,13 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>24</v>
@@ -1021,17 +1034,21 @@
         <v>24</v>
       </c>
       <c r="H2" s="25">
-        <f>13/39</f>
-        <v>0.33333333333333331</v>
+        <f>9/39</f>
+        <v>0.23076923076923078</v>
       </c>
       <c r="I2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="J2" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="M2" s="22"/>
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
@@ -1039,13 +1056,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>24</v>
@@ -1060,17 +1077,21 @@
         <v>24</v>
       </c>
       <c r="H3" s="26">
-        <f>9/39</f>
-        <v>0.23076923076923078</v>
+        <f>16/39</f>
+        <v>0.41025641025641024</v>
       </c>
       <c r="I3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
+      <c r="J3" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>47</v>
+      </c>
       <c r="M3" s="23"/>
       <c r="N3" s="23"/>
       <c r="O3" s="23"/>
@@ -1078,13 +1099,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>24</v>
@@ -1099,17 +1120,21 @@
         <v>24</v>
       </c>
       <c r="H4" s="26">
-        <f>9/39</f>
-        <v>0.23076923076923078</v>
+        <f>16/39</f>
+        <v>0.41025641025641024</v>
       </c>
       <c r="I4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
+      <c r="J4" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>45</v>
+      </c>
       <c r="M4" s="23"/>
       <c r="N4" s="23"/>
       <c r="O4" s="23"/>
@@ -1117,13 +1142,13 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>24</v>
@@ -1138,17 +1163,21 @@
         <v>24</v>
       </c>
       <c r="H5" s="26">
-        <f>10/39</f>
-        <v>0.25641025641025639</v>
+        <f>13/39</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
+      <c r="J5" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>45</v>
+      </c>
       <c r="M5" s="23"/>
       <c r="N5" s="23"/>
       <c r="O5" s="23"/>
@@ -1156,13 +1185,13 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>24</v>
@@ -1177,17 +1206,21 @@
         <v>24</v>
       </c>
       <c r="H6" s="26">
-        <f>16/39</f>
-        <v>0.41025641025641024</v>
+        <f>13/39</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+      <c r="J6" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>48</v>
+      </c>
       <c r="M6" s="23"/>
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
@@ -1195,20 +1228,18 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>24</v>
-      </c>
+      <c r="E7" s="19"/>
       <c r="F7" s="19" t="s">
         <v>24</v>
       </c>
@@ -1216,17 +1247,21 @@
         <v>24</v>
       </c>
       <c r="H7" s="26">
-        <f>16/39</f>
-        <v>0.41025641025641024</v>
+        <f>12/39</f>
+        <v>0.30769230769230771</v>
       </c>
       <c r="I7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="J7" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>48</v>
+      </c>
       <c r="M7" s="23"/>
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
@@ -1234,13 +1269,13 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>24</v>
@@ -1255,17 +1290,21 @@
         <v>24</v>
       </c>
       <c r="H8" s="26">
-        <f>13/39</f>
-        <v>0.33333333333333331</v>
+        <f>9/39</f>
+        <v>0.23076923076923078</v>
       </c>
       <c r="I8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
+      <c r="J8" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>46</v>
+      </c>
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
@@ -1273,18 +1312,20 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="F9" s="20" t="s">
         <v>24</v>
       </c>
@@ -1292,32 +1333,39 @@
         <v>24</v>
       </c>
       <c r="H9" s="27">
-        <f>12/39</f>
-        <v>0.30769230769230771</v>
+        <f>10/39</f>
+        <v>0.25641025641025639</v>
       </c>
       <c r="I9" s="24" t="s">
         <v>24</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
+        <v>40</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>46</v>
+      </c>
       <c r="M9" s="24"/>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
       <c r="P9" s="15"/>
     </row>
   </sheetData>
+  <sortState ref="A2:L9">
+    <sortCondition ref="L2:L9"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId3"/>
+    <hyperlink ref="B9" r:id="rId4"/>
+    <hyperlink ref="B3" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId6"/>
+    <hyperlink ref="B5" r:id="rId7"/>
+    <hyperlink ref="B7" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="50">
   <si>
     <t>Vladimir Galkin</t>
   </si>
@@ -241,12 +241,16 @@
   <si>
     <t>task3(store)</t>
   </si>
+  <si>
+    <t>08-Feb
+Test Cases</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,14 +305,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -551,11 +581,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -634,10 +666,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -659,9 +699,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -699,9 +739,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -736,7 +776,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -771,7 +811,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -949,7 +989,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,7 +1005,8 @@
     <col min="10" max="10" width="8" style="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.28515625" style="16" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.28515625" style="16" customWidth="1"/>
     <col min="16" max="16" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1006,7 +1047,9 @@
       <c r="L1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="21"/>
+      <c r="M1" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="N1" s="21"/>
       <c r="O1" s="21"/>
       <c r="P1" s="12"/>
@@ -1259,7 +1302,7 @@
       <c r="K7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="23" t="s">
+      <c r="L7" s="34" t="s">
         <v>48</v>
       </c>
       <c r="M7" s="23"/>
@@ -1345,7 +1388,7 @@
       <c r="K9" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="L9" s="35" t="s">
         <v>46</v>
       </c>
       <c r="M9" s="24"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -322,7 +322,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +339,12 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -587,7 +593,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -672,17 +678,21 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FF009999"/>
       <color rgb="FF99FF99"/>
     </mruColors>
@@ -699,9 +709,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -739,9 +749,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -776,7 +786,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -811,7 +821,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -988,7 +998,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -1092,7 +1102,9 @@
       <c r="L2" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="22"/>
+      <c r="M2" s="22">
+        <v>7</v>
+      </c>
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
       <c r="P2" s="13"/>
@@ -1135,7 +1147,9 @@
       <c r="L3" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="23"/>
+      <c r="M3" s="23">
+        <v>8</v>
+      </c>
       <c r="N3" s="23"/>
       <c r="O3" s="23"/>
       <c r="P3" s="14"/>
@@ -1178,7 +1192,9 @@
       <c r="L4" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="23"/>
+      <c r="M4" s="23">
+        <v>4</v>
+      </c>
       <c r="N4" s="23"/>
       <c r="O4" s="23"/>
       <c r="P4" s="14"/>
@@ -1221,7 +1237,9 @@
       <c r="L5" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="23"/>
+      <c r="M5" s="23">
+        <v>3</v>
+      </c>
       <c r="N5" s="23"/>
       <c r="O5" s="23"/>
       <c r="P5" s="14"/>
@@ -1264,7 +1282,9 @@
       <c r="L6" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="23"/>
+      <c r="M6" s="23">
+        <v>1</v>
+      </c>
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
       <c r="P6" s="14"/>
@@ -1305,7 +1325,9 @@
       <c r="L7" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="23"/>
+      <c r="M7" s="23">
+        <v>2</v>
+      </c>
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
       <c r="P7" s="14"/>
@@ -1345,10 +1367,12 @@
       <c r="K8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="L8" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="23"/>
+      <c r="M8" s="23">
+        <v>6</v>
+      </c>
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
       <c r="P8" s="14"/>
@@ -1391,7 +1415,9 @@
       <c r="L9" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="24"/>
+      <c r="M9" s="24">
+        <v>5</v>
+      </c>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
       <c r="P9" s="15"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
   <si>
     <t>Vladimir Galkin</t>
   </si>
@@ -245,12 +245,16 @@
     <t>08-Feb
 Test Cases</t>
   </si>
+  <si>
+    <t xml:space="preserve">13-Feb
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,8 +325,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,6 +357,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -587,13 +604,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -681,12 +699,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Хороший" xfId="2" builtinId="26"/>
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -709,9 +737,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -749,9 +777,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -786,7 +814,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -821,7 +849,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -995,11 +1023,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L8" sqref="L8"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,11 +1044,11 @@
     <col min="11" max="11" width="13.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.28515625" style="16" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="9.28515625" style="16" customWidth="1"/>
+    <col min="21" max="21" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1060,11 +1088,20 @@
       <c r="M1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="12"/>
+      <c r="N1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="12"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1102,14 +1139,21 @@
       <c r="L2" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="22">
+      <c r="M2" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="22">
         <v>7</v>
       </c>
-      <c r="N2" s="22"/>
       <c r="O2" s="22"/>
-      <c r="P2" s="13"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="13"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -1147,14 +1191,21 @@
       <c r="L3" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="38">
         <v>8</v>
       </c>
-      <c r="N3" s="23"/>
       <c r="O3" s="23"/>
-      <c r="P3" s="14"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="14"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1192,14 +1243,21 @@
       <c r="L4" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="23">
         <v>4</v>
       </c>
-      <c r="N4" s="23"/>
       <c r="O4" s="23"/>
-      <c r="P4" s="14"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="14"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -1237,14 +1295,21 @@
       <c r="L5" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="39">
         <v>3</v>
       </c>
-      <c r="N5" s="23"/>
       <c r="O5" s="23"/>
-      <c r="P5" s="14"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="14"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -1282,14 +1347,21 @@
       <c r="L6" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="39">
         <v>1</v>
       </c>
-      <c r="N6" s="23"/>
       <c r="O6" s="23"/>
-      <c r="P6" s="14"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="14"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -1325,14 +1397,21 @@
       <c r="L7" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="39">
         <v>2</v>
       </c>
-      <c r="N7" s="23"/>
       <c r="O7" s="23"/>
-      <c r="P7" s="14"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="14"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -1370,14 +1449,21 @@
       <c r="L8" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="23">
         <v>6</v>
       </c>
-      <c r="N8" s="23"/>
       <c r="O8" s="23"/>
-      <c r="P8" s="14"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="14"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
@@ -1415,12 +1501,19 @@
       <c r="L9" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="37">
         <v>5</v>
       </c>
-      <c r="N9" s="24"/>
       <c r="O9" s="24"/>
-      <c r="P9" s="15"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="15"/>
     </row>
   </sheetData>
   <sortState ref="A2:L9">

--- a/students.xlsx
+++ b/students.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="59">
   <si>
     <t>Vladimir Galkin</t>
   </si>
@@ -248,6 +248,30 @@
   <si>
     <t xml:space="preserve">13-Feb
 </t>
+  </si>
+  <si>
+    <t>1. empty «Login» field</t>
+  </si>
+  <si>
+    <t>2. existing login</t>
+  </si>
+  <si>
+    <t>8. «Cancel» button</t>
+  </si>
+  <si>
+    <t>4. pass is alphanumeric only</t>
+  </si>
+  <si>
+    <t>7. conf.pass is not empty</t>
+  </si>
+  <si>
+    <t>3. pass is more than 5 symb.</t>
+  </si>
+  <si>
+    <t>6. pass is not empty</t>
+  </si>
+  <si>
+    <t>5. pass and conf.pass are differ</t>
   </si>
 </sst>
 </file>
@@ -611,7 +635,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -699,14 +723,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1026,8 +1059,8 @@
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1077,8 @@
     <col min="11" max="11" width="13.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="9.28515625" style="16" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="9.28515625" style="16" customWidth="1"/>
     <col min="21" max="21" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1142,8 +1176,8 @@
       <c r="M2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="22">
-        <v>7</v>
+      <c r="N2" s="37" t="s">
+        <v>55</v>
       </c>
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
@@ -1194,8 +1228,8 @@
       <c r="M3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="38">
-        <v>8</v>
+      <c r="N3" s="38" t="s">
+        <v>53</v>
       </c>
       <c r="O3" s="23"/>
       <c r="P3" s="23"/>
@@ -1246,8 +1280,8 @@
       <c r="M4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="23">
-        <v>4</v>
+      <c r="N4" s="39" t="s">
+        <v>54</v>
       </c>
       <c r="O4" s="23"/>
       <c r="P4" s="23"/>
@@ -1298,8 +1332,8 @@
       <c r="M5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="39">
-        <v>3</v>
+      <c r="N5" s="42" t="s">
+        <v>56</v>
       </c>
       <c r="O5" s="23"/>
       <c r="P5" s="23"/>
@@ -1350,8 +1384,8 @@
       <c r="M6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="39">
-        <v>1</v>
+      <c r="N6" s="40" t="s">
+        <v>51</v>
       </c>
       <c r="O6" s="23"/>
       <c r="P6" s="23"/>
@@ -1400,8 +1434,8 @@
       <c r="M7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="39">
-        <v>2</v>
+      <c r="N7" s="40" t="s">
+        <v>52</v>
       </c>
       <c r="O7" s="23"/>
       <c r="P7" s="23"/>
@@ -1452,8 +1486,8 @@
       <c r="M8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="23">
-        <v>6</v>
+      <c r="N8" s="39" t="s">
+        <v>57</v>
       </c>
       <c r="O8" s="23"/>
       <c r="P8" s="23"/>
@@ -1504,8 +1538,8 @@
       <c r="M9" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="37">
-        <v>5</v>
+      <c r="N9" s="41" t="s">
+        <v>58</v>
       </c>
       <c r="O9" s="24"/>
       <c r="P9" s="24"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
   <si>
     <t>Vladimir Galkin</t>
   </si>
@@ -246,10 +246,6 @@
 Test Cases</t>
   </si>
   <si>
-    <t xml:space="preserve">13-Feb
-</t>
-  </si>
-  <si>
     <t>1. empty «Login» field</t>
   </si>
   <si>
@@ -272,6 +268,10 @@
   </si>
   <si>
     <t>5. pass and conf.pass are differ</t>
+  </si>
+  <si>
+    <t>15-Feb
+SDLC</t>
   </si>
 </sst>
 </file>
@@ -1059,8 +1059,10 @@
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N5" sqref="N5"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,9 +1128,11 @@
         <v>44</v>
       </c>
       <c r="O1" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" s="21"/>
+        <v>58</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="Q1" s="21"/>
       <c r="R1" s="21"/>
       <c r="S1" s="21"/>
@@ -1177,7 +1181,7 @@
         <v>24</v>
       </c>
       <c r="N2" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
@@ -1229,7 +1233,7 @@
         <v>24</v>
       </c>
       <c r="N3" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O3" s="23"/>
       <c r="P3" s="23"/>
@@ -1281,7 +1285,7 @@
         <v>24</v>
       </c>
       <c r="N4" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O4" s="23"/>
       <c r="P4" s="23"/>
@@ -1333,7 +1337,7 @@
         <v>24</v>
       </c>
       <c r="N5" s="42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O5" s="23"/>
       <c r="P5" s="23"/>
@@ -1385,7 +1389,7 @@
         <v>24</v>
       </c>
       <c r="N6" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O6" s="23"/>
       <c r="P6" s="23"/>
@@ -1435,7 +1439,7 @@
         <v>24</v>
       </c>
       <c r="N7" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O7" s="23"/>
       <c r="P7" s="23"/>
@@ -1487,7 +1491,7 @@
         <v>24</v>
       </c>
       <c r="N8" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O8" s="23"/>
       <c r="P8" s="23"/>
@@ -1539,7 +1543,7 @@
         <v>24</v>
       </c>
       <c r="N9" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O9" s="24"/>
       <c r="P9" s="24"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -635,7 +635,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -717,21 +717,12 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -739,6 +730,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1062,7 +1065,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,13 +1177,13 @@
       <c r="K2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="40" t="s">
         <v>47</v>
       </c>
       <c r="M2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="42" t="s">
         <v>54</v>
       </c>
       <c r="O2" s="22"/>
@@ -1232,7 +1235,7 @@
       <c r="M3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="38" t="s">
+      <c r="N3" s="36" t="s">
         <v>52</v>
       </c>
       <c r="O3" s="23"/>
@@ -1278,13 +1281,13 @@
       <c r="K4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="35" t="s">
         <v>45</v>
       </c>
       <c r="M4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="43" t="s">
         <v>53</v>
       </c>
       <c r="O4" s="23"/>
@@ -1330,13 +1333,13 @@
       <c r="K5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="35" t="s">
         <v>45</v>
       </c>
       <c r="M5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="42" t="s">
+      <c r="N5" s="39" t="s">
         <v>55</v>
       </c>
       <c r="O5" s="23"/>
@@ -1382,13 +1385,13 @@
       <c r="K6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="35" t="s">
         <v>48</v>
       </c>
       <c r="M6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="40" t="s">
+      <c r="N6" s="37" t="s">
         <v>50</v>
       </c>
       <c r="O6" s="23"/>
@@ -1438,7 +1441,7 @@
       <c r="M7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="40" t="s">
+      <c r="N7" s="37" t="s">
         <v>51</v>
       </c>
       <c r="O7" s="23"/>
@@ -1484,13 +1487,13 @@
       <c r="K8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="36" t="s">
+      <c r="L8" s="35" t="s">
         <v>46</v>
       </c>
       <c r="M8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="39" t="s">
+      <c r="N8" s="43" t="s">
         <v>56</v>
       </c>
       <c r="O8" s="23"/>
@@ -1536,13 +1539,13 @@
       <c r="K9" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="35" t="s">
+      <c r="L9" s="41" t="s">
         <v>46</v>
       </c>
       <c r="M9" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="41" t="s">
+      <c r="N9" s="38" t="s">
         <v>57</v>
       </c>
       <c r="O9" s="24"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="67">
   <si>
     <t>Vladimir Galkin</t>
   </si>
@@ -272,6 +272,30 @@
   <si>
     <t>15-Feb
 SDLC</t>
+  </si>
+  <si>
+    <t>Waterfall / Whirlpool</t>
+  </si>
+  <si>
+    <t>V-model</t>
+  </si>
+  <si>
+    <t>Prototyping Model</t>
+  </si>
+  <si>
+    <t>Spiral model</t>
+  </si>
+  <si>
+    <t>Scrum</t>
+  </si>
+  <si>
+    <t>Iterative Development (RUP)</t>
+  </si>
+  <si>
+    <t>XP</t>
+  </si>
+  <si>
+    <t>FDD</t>
   </si>
 </sst>
 </file>
@@ -635,7 +659,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -720,18 +744,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -742,6 +754,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1062,7 +1095,7 @@
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -1083,7 +1116,9 @@
     <col min="12" max="12" width="12.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="28.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="9.28515625" style="16" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="16" customWidth="1"/>
+    <col min="16" max="16" width="27.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="9.28515625" style="16" customWidth="1"/>
     <col min="21" max="21" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1177,17 +1212,21 @@
       <c r="K2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="36" t="s">
         <v>47</v>
       </c>
       <c r="M2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="N2" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
+      <c r="O2" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="44" t="s">
+        <v>59</v>
+      </c>
       <c r="Q2" s="22"/>
       <c r="R2" s="22"/>
       <c r="S2" s="22"/>
@@ -1235,11 +1274,15 @@
       <c r="M3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="N3" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
+      <c r="O3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="45" t="s">
+        <v>60</v>
+      </c>
       <c r="Q3" s="23"/>
       <c r="R3" s="23"/>
       <c r="S3" s="23"/>
@@ -1287,11 +1330,15 @@
       <c r="M4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="43" t="s">
+      <c r="N4" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
+      <c r="O4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="45" t="s">
+        <v>61</v>
+      </c>
       <c r="Q4" s="23"/>
       <c r="R4" s="23"/>
       <c r="S4" s="23"/>
@@ -1339,11 +1386,15 @@
       <c r="M5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="N5" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
+      <c r="O5" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="45" t="s">
+        <v>62</v>
+      </c>
       <c r="Q5" s="23"/>
       <c r="R5" s="23"/>
       <c r="S5" s="23"/>
@@ -1391,11 +1442,15 @@
       <c r="M6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
+      <c r="O6" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>63</v>
+      </c>
       <c r="Q6" s="23"/>
       <c r="R6" s="23"/>
       <c r="S6" s="23"/>
@@ -1441,11 +1496,15 @@
       <c r="M7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="37" t="s">
+      <c r="N7" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
+      <c r="O7" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="45" t="s">
+        <v>64</v>
+      </c>
       <c r="Q7" s="23"/>
       <c r="R7" s="23"/>
       <c r="S7" s="23"/>
@@ -1493,11 +1552,15 @@
       <c r="M8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="N8" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
+      <c r="O8" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="45" t="s">
+        <v>65</v>
+      </c>
       <c r="Q8" s="23"/>
       <c r="R8" s="23"/>
       <c r="S8" s="23"/>
@@ -1539,17 +1602,21 @@
       <c r="K9" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="41" t="s">
+      <c r="L9" s="37" t="s">
         <v>46</v>
       </c>
       <c r="M9" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
+      <c r="O9" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="46" t="s">
+        <v>66</v>
+      </c>
       <c r="Q9" s="24"/>
       <c r="R9" s="24"/>
       <c r="S9" s="24"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="70">
   <si>
     <t>Vladimir Galkin</t>
   </si>
@@ -296,6 +296,18 @@
   </si>
   <si>
     <t>FDD</t>
+  </si>
+  <si>
+    <t>20-Feb
+SDLC-SQL</t>
+  </si>
+  <si>
+    <t>21-Feb
+SQL</t>
+  </si>
+  <si>
+    <t>22-Feb
+SQL-Web</t>
   </si>
 </sst>
 </file>
@@ -1095,10 +1107,10 @@
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,9 +1183,15 @@
       <c r="P1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
+      <c r="Q1" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" s="29" t="s">
+        <v>69</v>
+      </c>
       <c r="T1" s="21"/>
       <c r="U1" s="12"/>
     </row>
@@ -1227,9 +1245,15 @@
       <c r="P2" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
+      <c r="Q2" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="T2" s="22"/>
       <c r="U2" s="13"/>
     </row>
@@ -1283,9 +1307,15 @@
       <c r="P3" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
+      <c r="Q3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="T3" s="23"/>
       <c r="U3" s="14"/>
     </row>
@@ -1339,9 +1369,15 @@
       <c r="P4" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
+      <c r="Q4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="T4" s="23"/>
       <c r="U4" s="14"/>
     </row>
@@ -1395,9 +1431,15 @@
       <c r="P5" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
+      <c r="Q5" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="T5" s="23"/>
       <c r="U5" s="14"/>
     </row>
@@ -1453,7 +1495,9 @@
       </c>
       <c r="Q6" s="23"/>
       <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
+      <c r="S6" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="T6" s="23"/>
       <c r="U6" s="14"/>
     </row>
@@ -1505,9 +1549,15 @@
       <c r="P7" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
+      <c r="Q7" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="T7" s="23"/>
       <c r="U7" s="14"/>
     </row>
@@ -1561,9 +1611,15 @@
       <c r="P8" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
+      <c r="Q8" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="T8" s="23"/>
       <c r="U8" s="14"/>
     </row>
@@ -1617,9 +1673,15 @@
       <c r="P9" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
+      <c r="Q9" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="T9" s="24"/>
       <c r="U9" s="15"/>
     </row>

--- a/students.xlsx
+++ b/students.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="70">
-  <si>
-    <t>Vladimir Galkin</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -28,82 +25,13 @@
     <t>about</t>
   </si>
   <si>
-    <t>20, DNU</t>
-  </si>
-  <si>
-    <t>Dmitriy Sulima</t>
-  </si>
-  <si>
-    <t>sulima_d@ukr.net</t>
-  </si>
-  <si>
-    <t>26, NMET</t>
-  </si>
-  <si>
-    <t>Olga Ampilogova</t>
-  </si>
-  <si>
-    <t>abcvital@ukr.net</t>
-  </si>
-  <si>
-    <t>41, DNU</t>
-  </si>
-  <si>
-    <t>werw.77@mail.ru</t>
-  </si>
-  <si>
-    <t>36, PGASA</t>
-  </si>
-  <si>
-    <t>Sergey Semenyuta</t>
-  </si>
-  <si>
-    <t>samm8@mail.ru</t>
-  </si>
-  <si>
-    <t>24, DNU (MechMath)</t>
-  </si>
-  <si>
-    <t>Kirill Golovkov</t>
-  </si>
-  <si>
-    <t>29, DNGU</t>
-  </si>
-  <si>
-    <t>Alexandr Lopatetskiy</t>
-  </si>
-  <si>
-    <t>blusher@i.ua</t>
-  </si>
-  <si>
-    <t>26, DNGU</t>
-  </si>
-  <si>
-    <t>vladimir.galkin92@gmail.com</t>
-  </si>
-  <si>
-    <t>Valeriy Verzhbitskiy</t>
-  </si>
-  <si>
     <t>assembla</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Konstantin Pavlyuchik</t>
-  </si>
-  <si>
-    <t>my_kostik@mail.ru</t>
-  </si>
-  <si>
-    <t>29, DGU (FT)</t>
-  </si>
-  <si>
     <t>TestThisApp</t>
-  </si>
-  <si>
-    <t>filho@bk.ru</t>
   </si>
   <si>
     <t>Defect</t>
@@ -308,6 +236,42 @@
   <si>
     <t>22-Feb
 SQL-Web</t>
+  </si>
+  <si>
+    <t>Ирина Орел</t>
+  </si>
+  <si>
+    <t>lera_babe@mail.ru</t>
+  </si>
+  <si>
+    <t>066-855-6904</t>
+  </si>
+  <si>
+    <t>Екатерина Северина</t>
+  </si>
+  <si>
+    <t>kbr1988@i.ua</t>
+  </si>
+  <si>
+    <t>066-273-9193</t>
+  </si>
+  <si>
+    <t>Надежда Дмитриенко</t>
+  </si>
+  <si>
+    <t>nadejda19.86@mail.ru</t>
+  </si>
+  <si>
+    <t>097-506-8774</t>
+  </si>
+  <si>
+    <t>Елена Абуева</t>
+  </si>
+  <si>
+    <t>abu.elen@gmail.com</t>
+  </si>
+  <si>
+    <t>067-148-9927</t>
   </si>
 </sst>
 </file>
@@ -1107,15 +1071,15 @@
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S1" sqref="S1"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
@@ -1136,551 +1100,473 @@
   <sheetData>
     <row r="1" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>23</v>
-      </c>
       <c r="E1" s="28" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="L1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="R1" s="29" t="s">
-        <v>68</v>
-      </c>
       <c r="S1" s="29" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="T1" s="21"/>
       <c r="U1" s="12"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>24</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D2" s="18"/>
       <c r="E2" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>24</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
       <c r="H2" s="25">
         <f>9/39</f>
         <v>0.23076923076923078</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="L2" s="36" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="P2" s="44" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="S2" s="22" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="T2" s="22"/>
       <c r="U2" s="13"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>24</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D3" s="19"/>
       <c r="E3" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>24</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="26">
         <f>16/39</f>
         <v>0.41025641025641024</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="N3" s="42" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="O3" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="P3" s="45" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="R3" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="S3" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="T3" s="23"/>
       <c r="U3" s="14"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>24</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D4" s="19"/>
       <c r="E4" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>24</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="26">
         <f>16/39</f>
         <v>0.41025641025641024</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="J4" s="30" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="N4" s="39" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="P4" s="45" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="R4" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="S4" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="T4" s="23"/>
       <c r="U4" s="14"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>24</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D5" s="19"/>
       <c r="E5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>24</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="26">
         <f>13/39</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="N5" s="40" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="P5" s="45" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="R5" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="S5" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="T5" s="23"/>
       <c r="U5" s="14"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>24</v>
-      </c>
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="26">
         <f>13/39</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="I6" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>48</v>
-      </c>
       <c r="M6" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="N6" s="41" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="O6" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="P6" s="45" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="23"/>
       <c r="R6" s="23"/>
       <c r="S6" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="T6" s="23"/>
       <c r="U6" s="14"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>24</v>
-      </c>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="19"/>
-      <c r="F7" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>24</v>
-      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="26">
         <f>12/39</f>
         <v>0.30769230769230771</v>
       </c>
       <c r="I7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="34" t="s">
-        <v>48</v>
-      </c>
       <c r="M7" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="N7" s="41" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="P7" s="45" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="R7" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="S7" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="T7" s="23"/>
       <c r="U7" s="14"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>24</v>
-      </c>
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="26">
         <f>9/39</f>
         <v>0.23076923076923078</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="N8" s="39" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="O8" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="P8" s="45" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="S8" s="23" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="T8" s="23"/>
       <c r="U8" s="14"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>24</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="27">
         <f>10/39</f>
         <v>0.25641025641025639</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="L9" s="37" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="M9" s="24" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="N9" s="43" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="O9" s="24" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="P9" s="46" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="24" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="R9" s="24" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="S9" s="24" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="T9" s="24"/>
       <c r="U9" s="15"/>
@@ -1690,16 +1576,12 @@
     <sortCondition ref="L2:L9"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B8" r:id="rId3"/>
-    <hyperlink ref="B9" r:id="rId4"/>
-    <hyperlink ref="B3" r:id="rId5"/>
-    <hyperlink ref="B4" r:id="rId6"/>
-    <hyperlink ref="B5" r:id="rId7"/>
-    <hyperlink ref="B7" r:id="rId8"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/students.xlsx
+++ b/students.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -31,55 +31,129 @@
     <t>Y</t>
   </si>
   <si>
-    <t>TestThisApp</t>
-  </si>
-  <si>
-    <t>Defect</t>
-  </si>
-  <si>
-    <t>#5</t>
-  </si>
-  <si>
-    <t>#8</t>
-  </si>
-  <si>
-    <t>#35</t>
-  </si>
-  <si>
-    <t>#31</t>
-  </si>
-  <si>
-    <t>23-Jan
+    <t>task2(auto)</t>
+  </si>
+  <si>
+    <t>task4(travel)</t>
+  </si>
+  <si>
+    <t>task1(zoo)</t>
+  </si>
+  <si>
+    <t>task3(store)</t>
+  </si>
+  <si>
+    <t>Waterfall / Whirlpool</t>
+  </si>
+  <si>
+    <t>V-model</t>
+  </si>
+  <si>
+    <t>Prototyping Model</t>
+  </si>
+  <si>
+    <t>Spiral model</t>
+  </si>
+  <si>
+    <t>Scrum</t>
+  </si>
+  <si>
+    <t>Iterative Development (RUP)</t>
+  </si>
+  <si>
+    <t>XP</t>
+  </si>
+  <si>
+    <t>FDD</t>
+  </si>
+  <si>
+    <t>Ирина Орел</t>
+  </si>
+  <si>
+    <t>lera_babe@mail.ru</t>
+  </si>
+  <si>
+    <t>066-855-6904</t>
+  </si>
+  <si>
+    <t>Екатерина Северина</t>
+  </si>
+  <si>
+    <t>kbr1988@i.ua</t>
+  </si>
+  <si>
+    <t>066-273-9193</t>
+  </si>
+  <si>
+    <t>Надежда Дмитриенко</t>
+  </si>
+  <si>
+    <t>nadejda19.86@mail.ru</t>
+  </si>
+  <si>
+    <t>097-506-8774</t>
+  </si>
+  <si>
+    <t>Елена Абуева</t>
+  </si>
+  <si>
+    <t>abu.elen@gmail.com</t>
+  </si>
+  <si>
+    <t>067-148-9927</t>
+  </si>
+  <si>
+    <t>conf.pass is not empty</t>
+  </si>
+  <si>
+    <t>«Cancel» button</t>
+  </si>
+  <si>
+    <t>pass is alphanumeric only</t>
+  </si>
+  <si>
+    <t>pass is more than 5 symb.</t>
+  </si>
+  <si>
+    <t>empty «Login» field</t>
+  </si>
+  <si>
+    <t>existing login</t>
+  </si>
+  <si>
+    <t>pass is not empty</t>
+  </si>
+  <si>
+    <t>pass and conf.pass are differ</t>
+  </si>
+  <si>
+    <t>20-Mar
 Intro, part 1</t>
   </si>
   <si>
-    <t>25-Jan
+    <t>22-Mar
 Intro, part 2</t>
   </si>
   <si>
-    <t>30-Jan
+    <t xml:space="preserve">
 Testing types</t>
   </si>
   <si>
-    <t>01-Feb
+    <t xml:space="preserve">
 Defects</t>
-  </si>
-  <si>
-    <t>06-Feb
-Requirements</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF009999"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">#2, </t>
+      <t>TASK:</t>
     </r>
     <r>
       <rPr>
@@ -89,21 +163,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>#26</t>
+      <t xml:space="preserve">
+TestThisApp</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Requirements</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF009999"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">#7, </t>
+      <t>TASK:</t>
     </r>
     <r>
       <rPr>
@@ -113,20 +192,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>#10</t>
+      <t xml:space="preserve">
+Defect from TTA</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
-        <color rgb="FF009999"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">#34, </t>
+      <t>TASK:</t>
     </r>
     <r>
       <rPr>
@@ -136,142 +217,91 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>#11</t>
+      <t xml:space="preserve">
+Requirements</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">#6, </t>
-    </r>
+    <t xml:space="preserve">
+Test Cases</t>
+  </si>
+  <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>#1</t>
+      <t>TASK:</t>
     </r>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>task2(auto)</t>
-  </si>
-  <si>
-    <t>task4(travel)</t>
-  </si>
-  <si>
-    <t>task1(zoo)</t>
-  </si>
-  <si>
-    <t>task3(store)</t>
-  </si>
-  <si>
-    <t>08-Feb
-Test Cases</t>
-  </si>
-  <si>
-    <t>1. empty «Login» field</t>
-  </si>
-  <si>
-    <t>2. existing login</t>
-  </si>
-  <si>
-    <t>8. «Cancel» button</t>
-  </si>
-  <si>
-    <t>4. pass is alphanumeric only</t>
-  </si>
-  <si>
-    <t>7. conf.pass is not empty</t>
-  </si>
-  <si>
-    <t>3. pass is more than 5 symb.</t>
-  </si>
-  <si>
-    <t>6. pass is not empty</t>
-  </si>
-  <si>
-    <t>5. pass and conf.pass are differ</t>
-  </si>
-  <si>
-    <t>15-Feb
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+написание ТК</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
 SDLC</t>
   </si>
   <si>
-    <t>Waterfall / Whirlpool</t>
-  </si>
-  <si>
-    <t>V-model</t>
-  </si>
-  <si>
-    <t>Prototyping Model</t>
-  </si>
-  <si>
-    <t>Spiral model</t>
-  </si>
-  <si>
-    <t>Scrum</t>
-  </si>
-  <si>
-    <t>Iterative Development (RUP)</t>
-  </si>
-  <si>
-    <t>XP</t>
-  </si>
-  <si>
-    <t>FDD</t>
-  </si>
-  <si>
-    <t>20-Feb
-SDLC-SQL</t>
-  </si>
-  <si>
-    <t>21-Feb
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TASK:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Виды SDLC</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
 SQL</t>
   </si>
   <si>
-    <t>22-Feb
+    <t xml:space="preserve">
 SQL-Web</t>
   </si>
   <si>
-    <t>Ирина Орел</t>
-  </si>
-  <si>
-    <t>lera_babe@mail.ru</t>
-  </si>
-  <si>
-    <t>066-855-6904</t>
-  </si>
-  <si>
-    <t>Екатерина Северина</t>
-  </si>
-  <si>
-    <t>kbr1988@i.ua</t>
-  </si>
-  <si>
-    <t>066-273-9193</t>
-  </si>
-  <si>
-    <t>Надежда Дмитриенко</t>
-  </si>
-  <si>
-    <t>nadejda19.86@mail.ru</t>
-  </si>
-  <si>
-    <t>097-506-8774</t>
-  </si>
-  <si>
-    <t>Елена Абуева</t>
-  </si>
-  <si>
-    <t>abu.elen@gmail.com</t>
-  </si>
-  <si>
-    <t>067-148-9927</t>
+    <r>
+      <t xml:space="preserve">
+SDLC (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>доклады)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -295,6 +325,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -304,23 +342,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF009999"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF009999"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -357,8 +378,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,12 +407,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
@@ -630,70 +654,20 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -702,56 +676,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1068,509 +1090,405 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:E5"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" style="16" customWidth="1"/>
-    <col min="16" max="16" width="27.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="9.28515625" style="16" customWidth="1"/>
-    <col min="21" max="21" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="21.42578125" style="46"/>
+    <col min="22" max="16384" width="21.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" s="3"/>
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="19"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="29"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="29"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="29"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="29"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="29"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="29"/>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="44"/>
+    </row>
+    <row r="10" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="28" t="s">
+    </row>
+    <row r="14" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="28" t="s">
+    </row>
+    <row r="15" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N15" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="29" t="s">
+    </row>
+    <row r="16" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N16" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="29" t="s">
+    </row>
+    <row r="17" spans="14:16" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N17" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="P17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="S1" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" s="21"/>
-      <c r="U1" s="12"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="25">
-        <f>9/39</f>
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="T2" s="22"/>
-      <c r="U2" s="13"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="26">
-        <f>16/39</f>
-        <v>0.41025641025641024</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="45" t="s">
+    </row>
+    <row r="18" spans="14:16" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="S3" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="T3" s="23"/>
-      <c r="U3" s="14"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="26">
-        <f>16/39</f>
-        <v>0.41025641025641024</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="S4" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="T4" s="23"/>
-      <c r="U4" s="14"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="26">
-        <f>13/39</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="R5" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="S5" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="T5" s="23"/>
-      <c r="U5" s="14"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="26">
-        <f>13/39</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="N6" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="P6" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="T6" s="23"/>
-      <c r="U6" s="14"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="26">
-        <f>12/39</f>
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="L7" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="N7" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="P7" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="R7" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="S7" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="T7" s="23"/>
-      <c r="U7" s="14"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="26">
-        <f>9/39</f>
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="23"/>
-      <c r="U8" s="14"/>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="27">
-        <f>10/39</f>
-        <v>0.25641025641025639</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="33" t="s">
+      <c r="P18" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q9" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="S9" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="T9" s="24"/>
-      <c r="U9" s="15"/>
-    </row>
+    </row>
+    <row r="19" spans="14:16" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="14:16" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="14:16" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="14:16" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="14:16" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="14:16" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="14:16" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="14:16" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="14:16" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="14:16" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="14:16" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="14:16" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="14:16" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="A2:L9">
     <sortCondition ref="L2:L9"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -308,7 +308,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,14 +371,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,7 +380,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,13 +397,8 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -613,9 +600,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
+      <left/>
       <right/>
       <top style="medium">
         <color theme="0" tint="-0.24994659260841701"/>
@@ -626,9 +611,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
@@ -638,28 +621,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -694,15 +663,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -715,31 +675,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -751,21 +687,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -775,9 +696,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Bad" xfId="4" builtinId="27"/>
+  <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
@@ -1090,7 +1043,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
@@ -1104,21 +1057,21 @@
     <col min="1" max="1" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.28515625" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="46" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.7109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" style="46" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.28515625" style="46" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" style="46" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.28515625" style="46" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="21.42578125" style="46"/>
+    <col min="4" max="4" width="9.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="21.42578125" style="30"/>
     <col min="22" max="16384" width="21.42578125" style="10"/>
   </cols>
   <sheetData>
@@ -1197,298 +1150,214 @@
       <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="14" t="s">
+        <v>4</v>
+      </c>
       <c r="G2" s="14"/>
       <c r="H2" s="15"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
       <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="19"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="16"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="29"/>
+      <c r="F3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="22"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="29"/>
+      <c r="F4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="22"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="29"/>
+      <c r="F5" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="22"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="29"/>
+    <row r="6" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="29"/>
+    <row r="8" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="29"/>
+    <row r="9" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="44"/>
+    <row r="10" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L11" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="P11" s="45" t="s">
-        <v>9</v>
+    <row r="11" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N11" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L12" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12" s="45" t="s">
-        <v>10</v>
+    <row r="12" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N12" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="29" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L13" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="N13" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="P13" s="45" t="s">
-        <v>11</v>
+    <row r="13" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="29" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L14" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="N14" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="45" t="s">
-        <v>12</v>
+    <row r="14" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N14" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" s="29" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="N15" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="P15" s="45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="N16" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="P16" s="45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="14:16" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="N17" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="P17" s="45" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="14:16" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="N18" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="P18" s="45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="14:16" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="14:16" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="14:16" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="14:16" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="14:16" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="14:16" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="14:16" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="14:16" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="14:16" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="14:16" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="14:16" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="14:16" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="14:16" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="A2:L9">
     <sortCondition ref="L2:L9"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -133,14 +133,6 @@
   <si>
     <t>22-Mar
 Intro, part 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Testing types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Defects</t>
   </si>
   <si>
     <r>
@@ -302,6 +294,14 @@
       </rPr>
       <t>доклады)</t>
     </r>
+  </si>
+  <si>
+    <t>25-Mar
+Testing types</t>
+  </si>
+  <si>
+    <t>27-Mar
+Defects</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1049,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,43 +1095,43 @@
         <v>38</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="L1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="S1" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="T1" s="3"/>
       <c r="U1" s="1"/>
@@ -1153,7 +1153,9 @@
       <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="14" t="s">
+        <v>4</v>
+      </c>
       <c r="H2" s="15"/>
       <c r="I2" s="14"/>
       <c r="J2" s="33"/>
@@ -1186,7 +1188,9 @@
       <c r="F3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="20"/>
+      <c r="G3" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="H3" s="21"/>
       <c r="I3" s="20"/>
       <c r="J3" s="35"/>
@@ -1219,7 +1223,9 @@
       <c r="F4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="20"/>
+      <c r="G4" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="H4" s="21"/>
       <c r="I4" s="20"/>
       <c r="J4" s="38"/>
@@ -1252,7 +1258,9 @@
       <c r="F5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="26"/>
+      <c r="G5" s="26" t="s">
+        <v>4</v>
+      </c>
       <c r="H5" s="27"/>
       <c r="I5" s="26"/>
       <c r="J5" s="39"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -29,18 +29,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>task2(auto)</t>
-  </si>
-  <si>
-    <t>task4(travel)</t>
-  </si>
-  <si>
-    <t>task1(zoo)</t>
-  </si>
-  <si>
-    <t>task3(store)</t>
   </si>
   <si>
     <t>Waterfall / Whirlpool</t>
@@ -160,10 +148,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">
-Requirements</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -214,10 +198,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">
-Test Cases</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -302,6 +282,26 @@
   <si>
     <t>27-Mar
 Defects</t>
+  </si>
+  <si>
+    <t>zoo</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>29-Mar
+Requirements</t>
+  </si>
+  <si>
+    <t>1-Apr
+Test Cases</t>
   </si>
 </sst>
 </file>
@@ -1046,10 +1046,10 @@
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,62 +1089,62 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="M1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="P1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="S1" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="T1" s="3"/>
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14" t="s">
@@ -1157,10 +1157,16 @@
         <v>4</v>
       </c>
       <c r="H2" s="15"/>
-      <c r="I2" s="14"/>
+      <c r="I2" s="14" t="s">
+        <v>4</v>
+      </c>
       <c r="J2" s="33"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="K2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="M2" s="14"/>
       <c r="N2" s="34"/>
       <c r="O2" s="14"/>
@@ -1173,13 +1179,13 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20" t="s">
@@ -1192,10 +1198,16 @@
         <v>4</v>
       </c>
       <c r="H3" s="21"/>
-      <c r="I3" s="20"/>
+      <c r="I3" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="J3" s="35"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
+      <c r="K3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="M3" s="20"/>
       <c r="N3" s="36"/>
       <c r="O3" s="20"/>
@@ -1208,13 +1220,13 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20" t="s">
@@ -1227,10 +1239,16 @@
         <v>4</v>
       </c>
       <c r="H4" s="21"/>
-      <c r="I4" s="20"/>
+      <c r="I4" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="J4" s="38"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
+      <c r="K4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="M4" s="20"/>
       <c r="N4" s="37"/>
       <c r="O4" s="20"/>
@@ -1243,13 +1261,13 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="26" t="s">
@@ -1262,10 +1280,16 @@
         <v>4</v>
       </c>
       <c r="H5" s="27"/>
-      <c r="I5" s="26"/>
+      <c r="I5" s="26" t="s">
+        <v>4</v>
+      </c>
       <c r="J5" s="39"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
+      <c r="K5" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>49</v>
+      </c>
       <c r="M5" s="26"/>
       <c r="N5" s="40"/>
       <c r="O5" s="26"/>
@@ -1278,79 +1302,67 @@
     </row>
     <row r="6" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L7" s="29" t="s">
-        <v>7</v>
-      </c>
       <c r="N7" s="29" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="P7" s="29" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L8" s="29" t="s">
-        <v>5</v>
-      </c>
       <c r="N8" s="29" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P8" s="29" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L9" s="29" t="s">
-        <v>8</v>
-      </c>
       <c r="N9" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P9" s="29" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L10" s="29" t="s">
-        <v>6</v>
-      </c>
       <c r="N10" s="29" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P10" s="29" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N11" s="29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P11" s="29" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N12" s="29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P12" s="29" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N13" s="29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P13" s="29" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N14" s="29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P14" s="29" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="540"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>pass is alphanumeric only</t>
-  </si>
-  <si>
-    <t>pass is more than 5 symb.</t>
   </si>
   <si>
     <t>empty «Login» field</t>
@@ -302,6 +299,9 @@
   <si>
     <t>1-Apr
 Test Cases</t>
+  </si>
+  <si>
+    <t>pass is more than 5 symbols</t>
   </si>
 </sst>
 </file>
@@ -723,18 +723,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -757,9 +757,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -797,9 +797,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -834,7 +834,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -869,7 +869,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1046,10 +1046,10 @@
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,49 +1089,49 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="T1" s="3"/>
       <c r="U1" s="1"/>
@@ -1165,10 +1165,14 @@
         <v>4</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="34"/>
+        <v>45</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="O2" s="14"/>
       <c r="P2" s="34"/>
       <c r="Q2" s="14"/>
@@ -1206,10 +1210,14 @@
         <v>4</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="36"/>
+        <v>46</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>28</v>
+      </c>
       <c r="O3" s="20"/>
       <c r="P3" s="37"/>
       <c r="Q3" s="20"/>
@@ -1247,10 +1255,14 @@
         <v>4</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="37"/>
+        <v>47</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="O4" s="20"/>
       <c r="P4" s="37"/>
       <c r="Q4" s="20"/>
@@ -1288,12 +1300,16 @@
         <v>4</v>
       </c>
       <c r="L5" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="40"/>
+        <v>48</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="41" t="s">
+        <v>51</v>
+      </c>
       <c r="O5" s="26"/>
-      <c r="P5" s="41"/>
+      <c r="P5" s="40"/>
       <c r="Q5" s="26"/>
       <c r="R5" s="26"/>
       <c r="S5" s="28"/>
@@ -1319,7 +1335,7 @@
     </row>
     <row r="9" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N9" s="29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P9" s="29" t="s">
         <v>7</v>
@@ -1327,40 +1343,28 @@
     </row>
     <row r="10" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N10" s="29" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P10" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="N11" s="29" t="s">
-        <v>29</v>
-      </c>
       <c r="P11" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="N12" s="29" t="s">
-        <v>30</v>
-      </c>
       <c r="P12" s="29" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="N13" s="29" t="s">
-        <v>31</v>
-      </c>
       <c r="P13" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="N14" s="29" t="s">
-        <v>32</v>
-      </c>
       <c r="P14" s="29" t="s">
         <v>12</v>
       </c>

--- a/students.xlsx
+++ b/students.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -29,30 +29,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>Waterfall / Whirlpool</t>
-  </si>
-  <si>
-    <t>V-model</t>
-  </si>
-  <si>
-    <t>Prototyping Model</t>
-  </si>
-  <si>
-    <t>Spiral model</t>
-  </si>
-  <si>
-    <t>Scrum</t>
-  </si>
-  <si>
-    <t>Iterative Development (RUP)</t>
-  </si>
-  <si>
-    <t>XP</t>
-  </si>
-  <si>
-    <t>FDD</t>
   </si>
   <si>
     <t>Ирина Орел</t>
@@ -302,6 +278,18 @@
   </si>
   <si>
     <t>pass is more than 5 symbols</t>
+  </si>
+  <si>
+    <t>Scrum, Waterfall / Whirlpool</t>
+  </si>
+  <si>
+    <t>Prototyping Model, RUP</t>
+  </si>
+  <si>
+    <t>Spiral model, XP</t>
+  </si>
+  <si>
+    <t>V-model, FDD</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1037,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,62 +1077,62 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="S1" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="T1" s="3"/>
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14" t="s">
@@ -1165,16 +1153,18 @@
         <v>4</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="M2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="O2" s="14"/>
-      <c r="P2" s="34"/>
+      <c r="P2" s="34" t="s">
+        <v>47</v>
+      </c>
       <c r="Q2" s="14"/>
       <c r="R2" s="14"/>
       <c r="S2" s="16"/>
@@ -1183,13 +1173,13 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20" t="s">
@@ -1210,16 +1200,18 @@
         <v>4</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="O3" s="20"/>
-      <c r="P3" s="37"/>
+      <c r="P3" s="37" t="s">
+        <v>45</v>
+      </c>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
       <c r="S3" s="22"/>
@@ -1228,13 +1220,13 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20" t="s">
@@ -1255,16 +1247,18 @@
         <v>4</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="M4" s="20" t="s">
         <v>4</v>
       </c>
       <c r="N4" s="37" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="O4" s="20"/>
-      <c r="P4" s="37"/>
+      <c r="P4" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="Q4" s="20"/>
       <c r="R4" s="20"/>
       <c r="S4" s="22"/>
@@ -1273,13 +1267,13 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="26" t="s">
@@ -1300,16 +1294,18 @@
         <v>4</v>
       </c>
       <c r="L5" s="26" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="M5" s="26" t="s">
         <v>4</v>
       </c>
       <c r="N5" s="41" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="O5" s="26"/>
-      <c r="P5" s="40"/>
+      <c r="P5" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="Q5" s="26"/>
       <c r="R5" s="26"/>
       <c r="S5" s="28"/>
@@ -1319,56 +1315,28 @@
     <row r="6" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N7" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="29" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N8" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" s="29" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N9" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" s="29" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N10" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" s="29" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="P11" s="29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="P12" s="29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="P13" s="29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="P14" s="29" t="s">
-        <v>12</v>
-      </c>
-    </row>
+    <row r="11" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="17" s="29" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -26,66 +26,6 @@
   </si>
   <si>
     <t>assembla</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Ирина Орел</t>
-  </si>
-  <si>
-    <t>lera_babe@mail.ru</t>
-  </si>
-  <si>
-    <t>066-855-6904</t>
-  </si>
-  <si>
-    <t>Екатерина Северина</t>
-  </si>
-  <si>
-    <t>kbr1988@i.ua</t>
-  </si>
-  <si>
-    <t>066-273-9193</t>
-  </si>
-  <si>
-    <t>Надежда Дмитриенко</t>
-  </si>
-  <si>
-    <t>nadejda19.86@mail.ru</t>
-  </si>
-  <si>
-    <t>097-506-8774</t>
-  </si>
-  <si>
-    <t>Елена Абуева</t>
-  </si>
-  <si>
-    <t>abu.elen@gmail.com</t>
-  </si>
-  <si>
-    <t>067-148-9927</t>
-  </si>
-  <si>
-    <t>conf.pass is not empty</t>
-  </si>
-  <si>
-    <t>«Cancel» button</t>
-  </si>
-  <si>
-    <t>pass is alphanumeric only</t>
-  </si>
-  <si>
-    <t>empty «Login» field</t>
-  </si>
-  <si>
-    <t>existing login</t>
-  </si>
-  <si>
-    <t>pass is not empty</t>
-  </si>
-  <si>
-    <t>pass and conf.pass are differ</t>
   </si>
   <si>
     <t>20-Mar
@@ -257,39 +197,12 @@
 Defects</t>
   </si>
   <si>
-    <t>zoo</t>
-  </si>
-  <si>
-    <t>travel</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
     <t>29-Mar
 Requirements</t>
   </si>
   <si>
     <t>1-Apr
 Test Cases</t>
-  </si>
-  <si>
-    <t>pass is more than 5 symbols</t>
-  </si>
-  <si>
-    <t>Scrum, Waterfall / Whirlpool</t>
-  </si>
-  <si>
-    <t>Prototyping Model, RUP</t>
-  </si>
-  <si>
-    <t>Spiral model, XP</t>
-  </si>
-  <si>
-    <t>V-model, FDD</t>
   </si>
 </sst>
 </file>
@@ -719,10 +632,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Хороший" xfId="2" builtinId="26"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -745,9 +658,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -785,7 +698,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -857,7 +770,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1034,10 +947,10 @@
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P1" sqref="P1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,94 +990,70 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="T1" s="3"/>
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>4</v>
-      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="15"/>
-      <c r="I2" s="14" t="s">
-        <v>4</v>
-      </c>
+      <c r="I2" s="14"/>
       <c r="J2" s="33"/>
-      <c r="K2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="34" t="s">
-        <v>21</v>
-      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="34"/>
       <c r="O2" s="14"/>
-      <c r="P2" s="34" t="s">
-        <v>47</v>
-      </c>
+      <c r="P2" s="34"/>
       <c r="Q2" s="14"/>
       <c r="R2" s="14"/>
       <c r="S2" s="16"/>
@@ -1172,46 +1061,22 @@
       <c r="U2" s="16"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>10</v>
-      </c>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="20"/>
-      <c r="E3" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>4</v>
-      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="20" t="s">
-        <v>4</v>
-      </c>
+      <c r="I3" s="20"/>
       <c r="J3" s="35"/>
-      <c r="K3" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="36"/>
       <c r="O3" s="20"/>
-      <c r="P3" s="37" t="s">
-        <v>45</v>
-      </c>
+      <c r="P3" s="37"/>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
       <c r="S3" s="22"/>
@@ -1219,46 +1084,22 @@
       <c r="U3" s="22"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>13</v>
-      </c>
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="20"/>
-      <c r="E4" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>4</v>
-      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="21"/>
-      <c r="I4" s="20" t="s">
-        <v>4</v>
-      </c>
+      <c r="I4" s="20"/>
       <c r="J4" s="38"/>
-      <c r="K4" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" s="37" t="s">
-        <v>19</v>
-      </c>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="37"/>
       <c r="O4" s="20"/>
-      <c r="P4" s="37" t="s">
-        <v>46</v>
-      </c>
+      <c r="P4" s="37"/>
       <c r="Q4" s="20"/>
       <c r="R4" s="20"/>
       <c r="S4" s="22"/>
@@ -1266,46 +1107,22 @@
       <c r="U4" s="22"/>
     </row>
     <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>16</v>
-      </c>
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="26"/>
-      <c r="E5" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>4</v>
-      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="27"/>
-      <c r="I5" s="26" t="s">
-        <v>4</v>
-      </c>
+      <c r="I5" s="26"/>
       <c r="J5" s="39"/>
-      <c r="K5" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="41" t="s">
-        <v>43</v>
-      </c>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="41"/>
       <c r="O5" s="26"/>
-      <c r="P5" s="40" t="s">
-        <v>44</v>
-      </c>
+      <c r="P5" s="40"/>
       <c r="Q5" s="26"/>
       <c r="R5" s="26"/>
       <c r="S5" s="28"/>
@@ -1313,26 +1130,10 @@
       <c r="U5" s="22"/>
     </row>
     <row r="6" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="N7" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="N8" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="N9" s="29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="N10" s="29" t="s">
-        <v>23</v>
-      </c>
-    </row>
+    <row r="7" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1354,13 +1155,7 @@
   <sortState ref="A2:L9">
     <sortCondition ref="L2:L9"/>
   </sortState>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/students.xlsx
+++ b/students.xlsx
@@ -14,150 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>email</t>
-  </si>
-  <si>
-    <t>about</t>
-  </si>
-  <si>
-    <t>assembla</t>
-  </si>
-  <si>
-    <t>20-Mar
-Intro, part 1</t>
-  </si>
-  <si>
-    <t>22-Mar
-Intro, part 2</t>
-  </si>
-  <si>
-    <t>25-Mar
-Testing types</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TASK:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>TestThisApp</t>
-    </r>
-  </si>
-  <si>
-    <t>27-Mar
-Defects</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TASK:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Defect from TTA</t>
-    </r>
-  </si>
-  <si>
-    <t>29-Mar
-Requirements</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TASK:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Requirements</t>
-    </r>
-  </si>
-  <si>
-    <t>1-Apr
-Test Cases</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TASK:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>написание ТК</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SDLC</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TASK:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Виды SDLC</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-SDLC (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>доклады)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SQL-Web</t>
   </si>
   <si>
     <t xml:space="preserve">Дмитрий </t>
@@ -177,12 +39,19 @@
   <si>
     <t>alenkadem88@gmail.com</t>
   </si>
+  <si>
+    <t>25-Nov
+Intro, part 1</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -197,31 +66,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color indexed="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="21"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -235,14 +82,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="17"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="21"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -267,7 +144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -319,22 +196,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
         <color indexed="22"/>
       </right>
       <top style="medium">
         <color indexed="22"/>
       </top>
-      <bottom style="medium">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="22"/>
       </left>
       <right style="thin">
@@ -352,7 +229,7 @@
       <left style="thin">
         <color indexed="22"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="22"/>
       </right>
       <top style="medium">
@@ -364,32 +241,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="medium">
-        <color indexed="22"/>
-      </right>
-      <top style="medium">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="22"/>
       </left>
@@ -426,17 +277,6 @@
       <right style="medium">
         <color indexed="22"/>
       </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="22"/>
       </top>
@@ -493,114 +333,90 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1060,7 +876,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -1069,216 +885,156 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="11.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="13.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="26.7109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.28515625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="27.28515625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="4.28515625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="21.7109375" style="2" customWidth="1"/>
-    <col min="20" max="21" width="21.5703125" style="2"/>
-    <col min="22" max="16384" width="21.5703125" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="17" width="10.7109375" style="32"/>
+    <col min="18" max="16384" width="10.7109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="C2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="14"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="C3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="22"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="B4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="9" t="s">
+      <c r="C4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="12"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="22"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="20"/>
+    <row r="5" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="30"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="30"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="30"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="30"/>
-    </row>
-    <row r="6" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="31" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="31" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="31" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="31" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="31" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="31" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="31" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="31" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="31" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="31" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="31" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
@@ -1287,7 +1043,7 @@
     <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>